--- a/medicine/Enfance/George_Worsley_Adamson/George_Worsley_Adamson.xlsx
+++ b/medicine/Enfance/George_Worsley_Adamson/George_Worsley_Adamson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Worsley Adamson, RE, MCSD (7 février 1913 – 5 mars 2005) est un dessinateur humoristique, illustrateur de livres, graveur et auteur né américain ayant acquis la nationalité britannique en 1931.
 </t>
@@ -511,10 +523,12 @@
           <t>Premières années</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adamson naquit au Bronx, New York City, fils de George William Adamson, maître constructeur de rames pour la Interborough Rapid Transit Company, et de Mary Lydia (Lily, née Howard). Son père, né à Glasgow, Écosse, et sa mère, née à Wigan, Lancashire, avaient déménagé à New York City de Bombay en Inde en 1910. À la suite du décès de sa mère en février 1921, George Adamson se rendit en Angleterre avec son père, sa tante Florence et ses deux sœurs Marie et Dorothy à bord du paquebot Cunard RMS Caronia, arrivant à Liverpool le 10 juillet[2]. Son père retourna à New York en octobre 1921, où il mourut l'année suivante.
-George Adamson fit sa formation au Wigan Mining and Technical College[3] et au Liverpool City School of Art[4] où il étudia la gravure sous la direction de Geoffrey Wedgwood.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adamson naquit au Bronx, New York City, fils de George William Adamson, maître constructeur de rames pour la Interborough Rapid Transit Company, et de Mary Lydia (Lily, née Howard). Son père, né à Glasgow, Écosse, et sa mère, née à Wigan, Lancashire, avaient déménagé à New York City de Bombay en Inde en 1910. À la suite du décès de sa mère en février 1921, George Adamson se rendit en Angleterre avec son père, sa tante Florence et ses deux sœurs Marie et Dorothy à bord du paquebot Cunard RMS Caronia, arrivant à Liverpool le 10 juillet. Son père retourna à New York en octobre 1921, où il mourut l'année suivante.
+George Adamson fit sa formation au Wigan Mining and Technical College et au Liverpool City School of Art où il étudia la gravure sous la direction de Geoffrey Wedgwood.
 Il exposa ses œuvres à la Royal Academy (en 1937, 1939, 1940 et 1948) et contribua à Punch à partir de 1939 jusqu'en 1988.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Seconde Guerre mondiale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pendant la Seconde Guerre mondiale, Adamson servit dans le Coastal Command de la RAF en tant que navigateur à bord des hydravions à coque Catalina pour la protection des convois de bateaux le long des Atterrages occidentaux ainsi que vers Mourmansk en U.R.S.S.[5]. Ultérieurement, il suivit un cours d'entraînement à bord des B-24 Liberators aux Bahamas. Après avoir illustré un article au sujet des vols transatlantiques pour la revue Illustrated London News[6], il fut nommé artiste de guerre officiel pour le Coastal Command. Quelques-uns des dessins d'Adamson sont actuellement conservés au Imperial War Museum[7] et au RAF Museum[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la Seconde Guerre mondiale, Adamson servit dans le Coastal Command de la RAF en tant que navigateur à bord des hydravions à coque Catalina pour la protection des convois de bateaux le long des Atterrages occidentaux ainsi que vers Mourmansk en U.R.S.S.. Ultérieurement, il suivit un cours d'entraînement à bord des B-24 Liberators aux Bahamas. Après avoir illustré un article au sujet des vols transatlantiques pour la revue Illustrated London News, il fut nommé artiste de guerre officiel pour le Coastal Command. Quelques-uns des dessins d'Adamson sont actuellement conservés au Imperial War Museum et au RAF Museum.
 </t>
         </is>
       </c>
@@ -575,22 +591,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Entre 1946 et 1953 Adamson enseigna la gravure et l'illustration à Exeter School of Art, Exeter, Devon.
-En 1954 il travailla brièvement à Londres avec le maquettiste John Morgan auprès du groupe nouvellement créé de Byrne and Woudhuysen Limited (ultérieurement Woudhuysen &amp; Company Ltd) avant de s'installer en tant qu'illustrateur et dessinateur humoristique à plein temps[9].
-Illustrateur
-Le premier livre pour lequel il exécuta les dessins et la couverture fut The Day is Over de Marjorie Vasey (Epworth Press, 1954).
-Dès le milieu des années 1960 il illustra les livres du professor Branestawn (le professeur Brindesong)[10] écrits par Norman Hunter, offrant une continuité en harmonie avec l'humour des illustrations de W. Heath Robinson remontant aux années 1930. Également dans les années 1960, Adamson peignit les couvertures des deux premiers romans pour enfants d'Alan Garner : The Weirdstone of Brisingamen (1960) et The Moon of Gomrath (1963). Pendant la même décennie Adamson illustra le premier livre de poèmes pour enfants de Ted Hughes : Meet My Folks! (1961), suivi par les illustrations de son premier livre de récits pour enfants How the Whale Became (1963) et celles de la première édition du livre The Iron Man (1968)[11].
-En 1970, Adamson illustra le livre basé sur la série télévisée Catweazle de Richard Carpenter[12]; suivi en 1971 par les illustrations du livre basé sur la deuxiėme série, Catweazle and the Magic Zodiac. Au cours des années 1980, il illustra les cinq premiers livres de lettres imaginaires envoyées par Denis Thatcher à un certain Bill mais en vérité rédigées par Richard Ingrams et John Wells pour la revue satirique Private Eye[13].
-Outre son travail pour livres, Adamson entreprit d'illustrer des articles dans diverses revues, dont The Listener et Nursing Times. Pour cette dernière il dessina plus de deux cents illustrations entre 1963 et 1983.
-Dessinateur humoristique
-Adamson publia son premier dessin humoristique dans la revue Punch en septembre 1939 et le dernier dans The Spectator en septembre 1994. Au cours de ces cinquante-cinq années ses dessins humoristiques parurent non seulement dans Punch mais aussi The Tatler and Bystander, Time &amp; Tide, la colonne de Peterborough du Daily Telegraph, Private Eye et d'autres revues dont La Revue des voyages où, en compagnie de trois autres dessinateurs de Punch, Adamson décrit ses impressions sur la vie au bord de la mer en France :
-« Punch à la plage : Quatre dessinateurs de Punch nous montrent comment ils voient les plages de la Manche, de l’Océan et de la Méditerranée[14]. Ils se représentent également comme ils se voient eux-mêmes.
-Deauville : Adamson nous écrit qu’il est blond, mince ; il a quarante deux ans, est dessinateur et illustrateur. Né à New York par un jour d’hiver il aime la neige. Mais il aime aussi rencontrer des gens qui éveillent en lui des idées, il est heureux dans de grands espaces, il ne déteste pas voyager et s’amuser. George W. Adamson qui fut engagé dans la R.A.F. en 1940, a néanmoins trouvé le temps pendant ses heures de repos de continuer à dessiner. Il est souvent distrait comme le montre son portrait[15]
-... »
-Graveur
-Grâce à l'enseignement inspiré de Geoffrey Wedgwood au Liverpool City School of Art, Adamson développa ce qui devint une fascination durable pour la gravure, notamment la pointe sèche, la gravure au vernis mou et l'eau-forte. Pendant les premières années qui suivirent la Seconde Guerre mondiale il entreprit plusieurs gravures pour son propre plaisir en même temps qu'il enseignait à Exeter School of Art. Toutefois, de nombreuses années s'écoulèrent entre le portrait qu'il fit de son fils à deux ans Peter One Morning (achevé en 1950) et Killerton from the North (1979). Durant cette période il poursuivit sa carrière d'illustrateur et de dessinateur humoristique et retourna à l'estampe avec grand enthousiasme vers la fin des années soixante-dix, exposant ses œuvres récentes et anciennes à la Royal Society of Painter-Etchers and Engravers[16] de 1981 à 1987, année où il est élu fellow de cette société. Parmi ses estampes tardives figurent des portraits du pianiste John Ogdon (1979) et de la poétesse du Devon Patricia Beer (1982).
+En 1954 il travailla brièvement à Londres avec le maquettiste John Morgan auprès du groupe nouvellement créé de Byrne and Woudhuysen Limited (ultérieurement Woudhuysen &amp; Company Ltd) avant de s'installer en tant qu'illustrateur et dessinateur humoristique à plein temps.
 </t>
         </is>
       </c>
@@ -616,10 +622,129 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier livre pour lequel il exécuta les dessins et la couverture fut The Day is Over de Marjorie Vasey (Epworth Press, 1954).
+Dès le milieu des années 1960 il illustra les livres du professor Branestawn (le professeur Brindesong) écrits par Norman Hunter, offrant une continuité en harmonie avec l'humour des illustrations de W. Heath Robinson remontant aux années 1930. Également dans les années 1960, Adamson peignit les couvertures des deux premiers romans pour enfants d'Alan Garner : The Weirdstone of Brisingamen (1960) et The Moon of Gomrath (1963). Pendant la même décennie Adamson illustra le premier livre de poèmes pour enfants de Ted Hughes : Meet My Folks! (1961), suivi par les illustrations de son premier livre de récits pour enfants How the Whale Became (1963) et celles de la première édition du livre The Iron Man (1968).
+En 1970, Adamson illustra le livre basé sur la série télévisée Catweazle de Richard Carpenter; suivi en 1971 par les illustrations du livre basé sur la deuxiėme série, Catweazle and the Magic Zodiac. Au cours des années 1980, il illustra les cinq premiers livres de lettres imaginaires envoyées par Denis Thatcher à un certain Bill mais en vérité rédigées par Richard Ingrams et John Wells pour la revue satirique Private Eye.
+Outre son travail pour livres, Adamson entreprit d'illustrer des articles dans diverses revues, dont The Listener et Nursing Times. Pour cette dernière il dessina plus de deux cents illustrations entre 1963 et 1983.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>George_Worsley_Adamson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Worsley_Adamson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dessinateur humoristique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adamson publia son premier dessin humoristique dans la revue Punch en septembre 1939 et le dernier dans The Spectator en septembre 1994. Au cours de ces cinquante-cinq années ses dessins humoristiques parurent non seulement dans Punch mais aussi The Tatler and Bystander, Time &amp; Tide, la colonne de Peterborough du Daily Telegraph, Private Eye et d'autres revues dont La Revue des voyages où, en compagnie de trois autres dessinateurs de Punch, Adamson décrit ses impressions sur la vie au bord de la mer en France :
+« Punch à la plage : Quatre dessinateurs de Punch nous montrent comment ils voient les plages de la Manche, de l’Océan et de la Méditerranée. Ils se représentent également comme ils se voient eux-mêmes.
+Deauville : Adamson nous écrit qu’il est blond, mince ; il a quarante deux ans, est dessinateur et illustrateur. Né à New York par un jour d’hiver il aime la neige. Mais il aime aussi rencontrer des gens qui éveillent en lui des idées, il est heureux dans de grands espaces, il ne déteste pas voyager et s’amuser. George W. Adamson qui fut engagé dans la R.A.F. en 1940, a néanmoins trouvé le temps pendant ses heures de repos de continuer à dessiner. Il est souvent distrait comme le montre son portrait
+... »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>George_Worsley_Adamson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Worsley_Adamson</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Graveur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grâce à l'enseignement inspiré de Geoffrey Wedgwood au Liverpool City School of Art, Adamson développa ce qui devint une fascination durable pour la gravure, notamment la pointe sèche, la gravure au vernis mou et l'eau-forte. Pendant les premières années qui suivirent la Seconde Guerre mondiale il entreprit plusieurs gravures pour son propre plaisir en même temps qu'il enseignait à Exeter School of Art. Toutefois, de nombreuses années s'écoulèrent entre le portrait qu'il fit de son fils à deux ans Peter One Morning (achevé en 1950) et Killerton from the North (1979). Durant cette période il poursuivit sa carrière d'illustrateur et de dessinateur humoristique et retourna à l'estampe avec grand enthousiasme vers la fin des années soixante-dix, exposant ses œuvres récentes et anciennes à la Royal Society of Painter-Etchers and Engravers de 1981 à 1987, année où il est élu fellow de cette société. Parmi ses estampes tardives figurent des portraits du pianiste John Ogdon (1979) et de la poétesse du Devon Patricia Beer (1982).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>George_Worsley_Adamson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Worsley_Adamson</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Œuvres en collections publiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>L'œuvre de George Adamson est présente dans plusieurs collections publiques dont :
 Ashmolean Museum, Oxford (gravure prêtée par la Royal Society of Painter-Printmakers)
@@ -637,38 +762,77 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>George_Worsley_Adamson</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/George_Worsley_Adamson</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>George_Worsley_Adamson</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Worsley_Adamson</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Œuvres sélectionnées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Livres écrits et illustrés
-A Finding Alphabet (Faber &amp; Faber, 1965)
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Livres écrits et illustrés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>A Finding Alphabet (Faber &amp; Faber, 1965)
 Finding 1 to 10 (Faber &amp; Faber, 1967)
-Rome Done Lightly (Chatto &amp; Windus, 1972)
-Livres illustrés
-Cette rubrique inclut des œuvres avec illustrations figurant à l'intérieur et/ou sur la couverture.
+Rome Done Lightly (Chatto &amp; Windus, 1972)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>George_Worsley_Adamson</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Worsley_Adamson</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres sélectionnées</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Livres illustrés</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cette rubrique inclut des œuvres avec illustrations figurant à l'intérieur et/ou sur la couverture.
 Marjorie Vasey The Day is Over (Epworth Press, 1954)
 Donald Herbert Barber Family Affairs (Epworth Press, 1954)
 Bertita Leonarz de Harding Magic Fire: The Story of Wagner’s Life and Music (Harrap, 1954)
@@ -739,7 +903,7 @@
 Geraldine Kaye Bonfire Night (Macmillan, 1968)
 Pandora Pollen Henry and Henrietta (Chatto, Boyd and Oliver, 1969)
 George Barker Runes and Rhymes, Tunes and Chimes (Faber &amp; Faber, 1969)
-Kaye Webb[17] &amp; Joan Aitken The Friday Miracle &amp; Other Stories (Puffin 1969, contrib.)
+Kaye Webb &amp; Joan Aitken The Friday Miracle &amp; Other Stories (Puffin 1969, contrib.)
 M.C.V. Jeffreys World To-day: You and Other People (Ginn, 1969)
 Charles Geoffrey Stuttard World To-day: Problems at Work (Ginn, 1969)
 Norman Hunter The Peculiar Triumph of Professor Branestawm (Bodley Head, 1970)
@@ -789,38 +953,74 @@
 Norman Hunter The Peculiar Triumph of Professor Branestawm (Random House, nouvelle édition brochée, 2003)
 Ted Hughes The Dreamfighter and Other Creation Tales (Faber &amp; Faber, qui comprend une réimpression, avec les dessins d'Adamson, des récits dans How the Whale Became, 2003)
 Ted Hughes Meet My Folks! (Faber &amp; Faber, couverture par Catherine Rayner, dessins de George Adamson, 2011)
-Ted Hughes How the Whale Became (Faber &amp; Faber, couverture par Catherine Rayner, dessins de George Adamson, 2011)
-Pochettes pour disques et couverture de CD
-Gordon Crosse (musique); Ted Hughes (poèmes) Meet My Folks! A theme and relations. For speaker, children’s chorus, children’s percussion band, and adult percussion and instrumental players (Opus 10) (EMI, 1965)
+Ted Hughes How the Whale Became (Faber &amp; Faber, couverture par Catherine Rayner, dessins de George Adamson, 2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>George_Worsley_Adamson</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Worsley_Adamson</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres sélectionnées</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pochettes pour disques et couverture de CD</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Gordon Crosse (musique); Ted Hughes (poèmes) Meet My Folks! A theme and relations. For speaker, children’s chorus, children’s percussion band, and adult percussion and instrumental players (Opus 10) (EMI, 1965)
 William Alwyn: Fantasy - Waltzes, 12 Preludes John Ogdon, piano (Chandos, disque et CD, 1985)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>George_Worsley_Adamson</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/George_Worsley_Adamson</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>George_Worsley_Adamson</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Worsley_Adamson</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Expositions sélectionnées</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Walker Art Gallery, Liverpool, 1933, 1935, 1936, 1937
 Atkinson Gallery, Southport, 1934
@@ -837,7 +1037,7 @@
 Drawings from BBC Publications, 1963
 East Kent Folkestone Arts Centre: « Cartoonists of the British School », 1968
 Royal Albert Memorial Museum, Exeter: « Adamson Exhibition », a one-man show, 1968
-Galerie Genot, Paris: « L'Humour actuel franco-britannique. 200 dessins », du 20 novembre 1974 au 10 décembre 1974, mais prolongée[18]
+Galerie Genot, Paris: « L'Humour actuel franco-britannique. 200 dessins », du 20 novembre 1974 au 10 décembre 1974, mais prolongée
 Ilkley Literature Festival, « An exhibition in honour of Ted Hughes, devised and presented by Keith Sagar to mark the poet’s involvement in the Ilkley Literature Festival », du 27 au 31 mai 1975 (Church House, Church Street, Ilkley)
 « Famous British Cartoonists », The London Gallery, N. La Cienega, Los Angeles, du 19 mai au 15 juin 1975
 Market Print Gallery, Exeter, « George Adamson Cartoons Christmas Show », 1976?
@@ -866,33 +1066,35 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>George_Worsley_Adamson</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/George_Worsley_Adamson</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>George_Worsley_Adamson</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Worsley_Adamson</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Récompenses et compléments</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adamson remporta le P.G. Wodehouse Centenary Illustration Award dans Punch en 1981 et fut commissionné par la suite pour illustrer une anthologie de contes de P.G. Wodehouse pour la Folio Society parue en 1983[19].
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adamson remporta le P.G. Wodehouse Centenary Illustration Award dans Punch en 1981 et fut commissionné par la suite pour illustrer une anthologie de contes de P.G. Wodehouse pour la Folio Society parue en 1983.
 George Adamson fut élu fellow de la Royal Society of Painter-Etchers and Engravers en 1987.
 </t>
         </is>
